--- a/fhir/ValueSet-phmr-observation-vs.xlsx
+++ b/fhir/ValueSet-phmr-observation-vs.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-phmr-observation-vs.xlsx
+++ b/fhir/ValueSet-phmr-observation-vs.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-phmr-observation-vs.xlsx
+++ b/fhir/ValueSet-phmr-observation-vs.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-phmr-observation-vs.xlsx
+++ b/fhir/ValueSet-phmr-observation-vs.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
